--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7745650.36</v>
+        <v>14977822.71</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322735.43</v>
+        <v>468056.96</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>970793.97</v>
+        <v>974272.39</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389542.47</v>
+        <v>389368.45</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1385635.76</v>
+        <v>1390409.84</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117346.52</v>
+        <v>116882.54</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1614894.62</v>
+        <v>1594948.9</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200520.23</v>
+        <v>201576.53</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250332.36</v>
+        <v>224656.37</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375662.96</v>
+        <v>376245.37</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>327175.64</v>
+        <v>328678.14</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245150.84</v>
+        <v>246197.33</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129707.32</v>
+        <v>129460.42</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159057.9</v>
+        <v>161606.05</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>302475.34</v>
+        <v>302160.25</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350964.35</v>
+        <v>350718.56</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99664.25999999999</v>
+        <v>100064.83</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110703.48</v>
+        <v>125150.36</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78391.81</v>
+        <v>77958.38</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15626.16</v>
+        <v>16348.56</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>367242.76</v>
+        <v>604803.23</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19952.15</v>
+        <v>20296.38</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38674.09</v>
+        <v>38637.52</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81726.77</v>
+        <v>81651.69</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11213.29</v>
+        <v>11193.75</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,87 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103195.31</v>
+        <v>103276.19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>124250.25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>724.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1061599.61</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2614084.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5506.33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10446.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11193.75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3183455.44</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,345 +439,452 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14977822.71</v>
+        <v>604803.23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>605392.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>468056.96</v>
+        <v>974272.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>990529.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>974272.39</v>
+        <v>20296.38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389368.45</v>
+        <v>77958.38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78538.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1390409.84</v>
+        <v>389368.45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>389064.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116882.54</v>
+        <v>1390409.84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1389912.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1594948.9</v>
+        <v>1061599.61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1053603.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>201576.53</v>
+        <v>38637.52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>38732.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224656.37</v>
+        <v>5506.33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5529.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376245.37</v>
+        <v>116882.54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8645.709999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>328678.14</v>
+        <v>2614084.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2578167.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>246197.33</v>
+        <v>129460.42</v>
+      </c>
+      <c r="C13" t="n">
+        <v>166921.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129460.42</v>
+        <v>161606.05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>160622.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>161606.05</v>
+        <v>1594948.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1624102.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>302160.25</v>
+        <v>201576.53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>201704.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350718.56</v>
+        <v>81651.69</v>
+      </c>
+      <c r="C17" t="n">
+        <v>81289.53999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100064.83</v>
+        <v>10446.12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10466.79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125150.36</v>
+        <v>224656.37</v>
+      </c>
+      <c r="C19" t="n">
+        <v>225352.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77958.38</v>
+        <v>376245.37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>373067.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16348.56</v>
+        <v>125150.36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>124895.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>604803.23</v>
+        <v>11193.75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15370.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20296.38</v>
+        <v>11193.75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15370.68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38637.52</v>
+        <v>124250.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>124539.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81651.69</v>
+        <v>724.99</v>
+      </c>
+      <c r="C25" t="n">
+        <v>740.3099999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11193.75</v>
+        <v>103276.19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>103135.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103276.19</v>
+        <v>302160.25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>303090.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124250.25</v>
+        <v>350718.56</v>
+      </c>
+      <c r="C28" t="n">
+        <v>350780.68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.99</v>
+        <v>16348.56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16033.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1061599.61</v>
+        <v>328678.14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>327476.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2614084.19</v>
+        <v>246197.33</v>
+      </c>
+      <c r="C31" t="n">
+        <v>245846.51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5506.33</v>
+        <v>3183455.44</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3197643.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10446.12</v>
+        <v>100064.83</v>
+      </c>
+      <c r="C33" t="n">
+        <v>100109.46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11193.75</v>
+        <v>468056.96</v>
+      </c>
+      <c r="C34" t="n">
+        <v>466450.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3183455.44</v>
+        <v>14977822.71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14926407.76</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,355 +439,465 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15738680.62</v>
+        <v>605392.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>640930.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476929.72</v>
+        <v>990529.11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>988874.8199999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap Balanceado V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605392.62</v>
+        <v>295014.52</v>
+      </c>
+      <c r="C4" t="n">
+        <v>266099.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990529.11</v>
+        <v>19732</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19635.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap Balanceado V</t>
+          <t>Adcap Wise</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295014.52</v>
+        <v>532629.02</v>
+      </c>
+      <c r="C6" t="n">
+        <v>477053.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19732</v>
+        <v>78538.86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78354.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>532629.02</v>
+        <v>389064.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>390001.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78538.86</v>
+        <v>1389912.42</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1389806.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>389064.75</v>
+        <v>1053603.04</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1048935.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1389912.42</v>
+        <v>38732.12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38634.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1053603.04</v>
+        <v>5529.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5520.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38732.12</v>
+        <v>8645.709999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8929.639999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5529.2</v>
+        <v>2578167.38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2322965.99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8645.709999999999</v>
+        <v>166921.24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>167527.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2578167.38</v>
+        <v>160622.95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>160514.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166921.24</v>
+        <v>1624102.04</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1745608.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160622.95</v>
+        <v>201704.83</v>
+      </c>
+      <c r="C18" t="n">
+        <v>200380.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1624102.04</v>
+        <v>81289.53999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>81638.42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>201704.83</v>
+        <v>10466.79</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10519.39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81289.53999999999</v>
+        <v>225352.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>226172.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10466.79</v>
+        <v>373067.04</v>
+      </c>
+      <c r="C22" t="n">
+        <v>373678.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>225352.3</v>
+        <v>124895.09</v>
+      </c>
+      <c r="C23" t="n">
+        <v>131053.92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>373067.04</v>
+        <v>15370.68</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15379.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124895.09</v>
+        <v>124539.94</v>
+      </c>
+      <c r="C25" t="n">
+        <v>138404.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15370.68</v>
+        <v>740.3099999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>731.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>124539.94</v>
+        <v>103135.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>103046.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>740.3099999999999</v>
+        <v>303090.71</v>
+      </c>
+      <c r="C28" t="n">
+        <v>302296.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103135.9</v>
+        <v>350780.68</v>
+      </c>
+      <c r="C29" t="n">
+        <v>349269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>303090.71</v>
+        <v>16033.92</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15636.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>350780.68</v>
+        <v>327476.6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>328656.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16033.92</v>
+        <v>245846.51</v>
+      </c>
+      <c r="C32" t="n">
+        <v>245588.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327476.6</v>
+        <v>3197643.34</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3616847.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245846.51</v>
+        <v>100109.46</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100136.78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3197643.34</v>
+        <v>476929.72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>484509.97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100109.46</v>
+        <v>15738680.62</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15988828.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -610,9 +610,7 @@
       <c r="B14" t="n">
         <v>2578167.38</v>
       </c>
-      <c r="C14" t="n">
-        <v>2322965.99</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +621,7 @@
       <c r="B15" t="n">
         <v>166921.24</v>
       </c>
-      <c r="C15" t="n">
-        <v>167527.66</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +632,7 @@
       <c r="B16" t="n">
         <v>160622.95</v>
       </c>
-      <c r="C16" t="n">
-        <v>160514.35</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +643,7 @@
       <c r="B17" t="n">
         <v>1624102.04</v>
       </c>
-      <c r="C17" t="n">
-        <v>1745608.11</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -792,9 +784,7 @@
       <c r="B28" t="n">
         <v>303090.71</v>
       </c>
-      <c r="C28" t="n">
-        <v>302296.96</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -884,7 +874,7 @@
         <v>476929.72</v>
       </c>
       <c r="C35" t="n">
-        <v>484509.97</v>
+        <v>403211.28</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +887,7 @@
         <v>15738680.62</v>
       </c>
       <c r="C36" t="n">
-        <v>15988828.85</v>
+        <v>11289915.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>605392.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>640930.23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>580877.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>580181.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>578593.71</v>
+      </c>
+      <c r="G2" t="n">
+        <v>578575.52</v>
+      </c>
+      <c r="H2" t="n">
+        <v>581063.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>520895.73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>520708.03</v>
+      </c>
+      <c r="K2" t="n">
+        <v>460127.37</v>
+      </c>
+      <c r="L2" t="n">
+        <v>319788.16</v>
+      </c>
+      <c r="M2" t="n">
         <v>318908.93</v>
-      </c>
-      <c r="C2" t="n">
-        <v>318136.98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>319986.93</v>
-      </c>
-      <c r="E2" t="n">
-        <v>320163.69</v>
-      </c>
-      <c r="F2" t="n">
-        <v>319740.71</v>
-      </c>
-      <c r="G2" t="n">
-        <v>318543.88</v>
       </c>
     </row>
     <row r="3">
@@ -497,747 +545,1377 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>990529.11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>988874.8199999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1044909.57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1047830.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1048418.21</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1048010.21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1044414.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1048289.57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1048470.72</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1044764.55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>989233.66</v>
+      </c>
+      <c r="M3" t="n">
         <v>1051954.17</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1051454.63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1052635.69</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1050638.96</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1052109.03</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1135872.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Adcap Balanceado V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111245.5</v>
+        <v>295014.52</v>
       </c>
       <c r="C4" t="n">
-        <v>111626.44</v>
+        <v>266099.34</v>
       </c>
       <c r="D4" t="n">
-        <v>111207.47</v>
-      </c>
-      <c r="E4" t="n">
-        <v>110961.86</v>
-      </c>
-      <c r="F4" t="n">
-        <v>110835</v>
-      </c>
-      <c r="G4" t="n">
-        <v>111678.57</v>
-      </c>
+        <v>238126.38</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89072.35000000001</v>
+        <v>19732</v>
       </c>
       <c r="C5" t="n">
-        <v>88918.50999999999</v>
+        <v>19635.72</v>
       </c>
       <c r="D5" t="n">
-        <v>89770.39999999999</v>
+        <v>110925.02</v>
       </c>
       <c r="E5" t="n">
-        <v>88871.89999999999</v>
+        <v>111242.02</v>
       </c>
       <c r="F5" t="n">
-        <v>90132.8</v>
+        <v>111653.11</v>
       </c>
       <c r="G5" t="n">
-        <v>320264.12</v>
+        <v>111146.71</v>
+      </c>
+      <c r="H5" t="n">
+        <v>111053.19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>111279.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>110847.61</v>
+      </c>
+      <c r="K5" t="n">
+        <v>111639.02</v>
+      </c>
+      <c r="L5" t="n">
+        <v>110848.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>111245.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap Wise</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390050.86</v>
+        <v>532629.02</v>
       </c>
       <c r="C6" t="n">
-        <v>390989.17</v>
+        <v>477053.67</v>
       </c>
       <c r="D6" t="n">
-        <v>390260.43</v>
-      </c>
-      <c r="E6" t="n">
-        <v>390252.14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>390300.52</v>
-      </c>
-      <c r="G6" t="n">
-        <v>391112.2</v>
-      </c>
+        <v>427489.72</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1264943.5</v>
+        <v>78538.86</v>
       </c>
       <c r="C7" t="n">
-        <v>1264120.64</v>
+        <v>78354.11</v>
       </c>
       <c r="D7" t="n">
-        <v>1265180.54</v>
+        <v>89594.92999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>1137752.58</v>
+        <v>89160.12</v>
       </c>
       <c r="F7" t="n">
-        <v>1137697.97</v>
+        <v>89165.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1137410.67</v>
+        <v>89090.13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>89357.75999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>89638.60000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>89302.82000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>89038.81</v>
+      </c>
+      <c r="L7" t="n">
+        <v>89112.74000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>89072.35000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1056266.31</v>
+        <v>389064.75</v>
       </c>
       <c r="C8" t="n">
-        <v>1060442.67</v>
+        <v>390001.9</v>
       </c>
       <c r="D8" t="n">
-        <v>1047905.33</v>
+        <v>390750.27</v>
       </c>
       <c r="E8" t="n">
-        <v>1064335.92</v>
+        <v>389485.99</v>
       </c>
       <c r="F8" t="n">
-        <v>1056453.65</v>
+        <v>389349.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1048561.84</v>
+        <v>388653.69</v>
+      </c>
+      <c r="H8" t="n">
+        <v>390188.99</v>
+      </c>
+      <c r="I8" t="n">
+        <v>389134.84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>389110.71</v>
+      </c>
+      <c r="K8" t="n">
+        <v>390012.56</v>
+      </c>
+      <c r="L8" t="n">
+        <v>390538.11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>390050.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4616.16</v>
+        <v>1389912.42</v>
       </c>
       <c r="C9" t="n">
-        <v>4599.33</v>
+        <v>1389806.51</v>
       </c>
       <c r="D9" t="n">
-        <v>4596.03</v>
+        <v>1387919.04</v>
       </c>
       <c r="E9" t="n">
-        <v>4597.67</v>
+        <v>1386810.11</v>
       </c>
       <c r="F9" t="n">
-        <v>4616.36</v>
+        <v>1389677.7</v>
       </c>
       <c r="G9" t="n">
-        <v>4595.46</v>
+        <v>1389403.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1385826.48</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1387714.84</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1263526.68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1267635.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1267871.08</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1264943.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5522.2</v>
+        <v>1053603.04</v>
       </c>
       <c r="C10" t="n">
-        <v>5514.54</v>
+        <v>1048935.77</v>
       </c>
       <c r="D10" t="n">
-        <v>5503.94</v>
+        <v>1051332.45</v>
       </c>
       <c r="E10" t="n">
-        <v>5514.15</v>
+        <v>1050810.89</v>
       </c>
       <c r="F10" t="n">
-        <v>5537.47</v>
+        <v>1058675.89</v>
       </c>
       <c r="G10" t="n">
-        <v>5513.7</v>
+        <v>1059109.71</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1057100.71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1051827.64</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1054068.48</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1055538.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1051958.19</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1056266.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8366.18</v>
+        <v>38732.12</v>
       </c>
       <c r="C11" t="n">
-        <v>8616.85</v>
+        <v>38634.65</v>
       </c>
       <c r="D11" t="n">
-        <v>8823.450000000001</v>
+        <v>38766.28</v>
       </c>
       <c r="E11" t="n">
-        <v>9721.16</v>
+        <v>38720.62</v>
       </c>
       <c r="F11" t="n">
-        <v>9679.93</v>
+        <v>38587.81</v>
       </c>
       <c r="G11" t="n">
-        <v>5009.04</v>
+        <v>38468.14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38496.34</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38480.42</v>
+      </c>
+      <c r="J11" t="n">
+        <v>38787.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4597.88</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4607.72</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4616.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166781.14</v>
+        <v>5529.2</v>
       </c>
       <c r="C12" t="n">
-        <v>166677.64</v>
+        <v>5520.34</v>
       </c>
       <c r="D12" t="n">
-        <v>167540.67</v>
+        <v>5505.78</v>
       </c>
       <c r="E12" t="n">
-        <v>168108.81</v>
+        <v>5535.31</v>
       </c>
       <c r="F12" t="n">
-        <v>168408.89</v>
+        <v>5539.23</v>
       </c>
       <c r="G12" t="n">
-        <v>166259.82</v>
+        <v>5523.23</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5526.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5511.85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5517.86</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5520.22</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5517.38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5522.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158676.45</v>
+        <v>8645.709999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>160478.96</v>
+        <v>8929.639999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>160182.78</v>
+        <v>7821.25</v>
       </c>
       <c r="E13" t="n">
-        <v>162351.88</v>
+        <v>8221.93</v>
       </c>
       <c r="F13" t="n">
-        <v>158612.61</v>
+        <v>8297.32</v>
       </c>
       <c r="G13" t="n">
-        <v>160116.33</v>
+        <v>8329.129999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8418.32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8490.450000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8456.16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8580.24</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8086.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8366.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1477652.36</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1475242.82</v>
-      </c>
+        <v>2578167.38</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1477748.94</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1456912.76</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1566404.2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1611985.92</v>
-      </c>
+        <v>2069418.1</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>201420.81</v>
-      </c>
-      <c r="C15" t="n">
-        <v>202094.04</v>
-      </c>
+        <v>166921.24</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>201175.48</v>
+        <v>167305.91</v>
       </c>
       <c r="E15" t="n">
-        <v>204341.83</v>
+        <v>167748.13</v>
       </c>
       <c r="F15" t="n">
-        <v>402453.06</v>
+        <v>168028.32</v>
       </c>
       <c r="G15" t="n">
-        <v>461359.95</v>
+        <v>166474.34</v>
+      </c>
+      <c r="H15" t="n">
+        <v>165156.29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>168154.47</v>
+      </c>
+      <c r="J15" t="n">
+        <v>165711.13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>168245.76</v>
+      </c>
+      <c r="L15" t="n">
+        <v>165175.97</v>
+      </c>
+      <c r="M15" t="n">
+        <v>166781.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71314.25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>71781.19</v>
-      </c>
+        <v>160622.95</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>71351.00999999999</v>
+        <v>160985.98</v>
       </c>
       <c r="E16" t="n">
-        <v>71844.05</v>
+        <v>158990.44</v>
       </c>
       <c r="F16" t="n">
-        <v>71644.61</v>
+        <v>159073.96</v>
       </c>
       <c r="G16" t="n">
-        <v>71475.64999999999</v>
+        <v>160184.58</v>
+      </c>
+      <c r="H16" t="n">
+        <v>160024.89</v>
+      </c>
+      <c r="I16" t="n">
+        <v>161811.91</v>
+      </c>
+      <c r="J16" t="n">
+        <v>162003.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>161850.03</v>
+      </c>
+      <c r="L16" t="n">
+        <v>159627.04</v>
+      </c>
+      <c r="M16" t="n">
+        <v>158676.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10574.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10443.67</v>
-      </c>
+        <v>1624102.04</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>10590.57</v>
+        <v>1661696.51</v>
       </c>
       <c r="E17" t="n">
-        <v>10557.55</v>
+        <v>1750587.62</v>
       </c>
       <c r="F17" t="n">
-        <v>10511.75</v>
+        <v>1711432.57</v>
       </c>
       <c r="G17" t="n">
-        <v>10517.34</v>
+        <v>1562002.18</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1561071.41</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1550292.96</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1530747.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1525569.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1507539.27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1477652.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>180021.74</v>
+        <v>201704.83</v>
       </c>
       <c r="C18" t="n">
-        <v>179355.89</v>
+        <v>200380.02</v>
       </c>
       <c r="D18" t="n">
-        <v>179237.92</v>
+        <v>200371.95</v>
       </c>
       <c r="E18" t="n">
-        <v>179359.06</v>
+        <v>202743.07</v>
       </c>
       <c r="F18" t="n">
-        <v>179857.16</v>
+        <v>200441.24</v>
       </c>
       <c r="G18" t="n">
-        <v>179969.56</v>
+        <v>202555.29</v>
+      </c>
+      <c r="H18" t="n">
+        <v>200728.91</v>
+      </c>
+      <c r="I18" t="n">
+        <v>202227.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201290.42</v>
+      </c>
+      <c r="K18" t="n">
+        <v>202286.62</v>
+      </c>
+      <c r="L18" t="n">
+        <v>202235.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>201420.81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>296021.42</v>
+        <v>81289.53999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>293981.74</v>
+        <v>81638.42</v>
       </c>
       <c r="D19" t="n">
-        <v>294603.59</v>
+        <v>71772.64999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>294465.18</v>
+        <v>71713.53</v>
       </c>
       <c r="F19" t="n">
-        <v>294056.15</v>
+        <v>71465.64999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>294999.85</v>
+        <v>71365.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>71690.60000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>71289.36</v>
+      </c>
+      <c r="J19" t="n">
+        <v>71727.52</v>
+      </c>
+      <c r="K19" t="n">
+        <v>71313.97</v>
+      </c>
+      <c r="L19" t="n">
+        <v>71587.73</v>
+      </c>
+      <c r="M19" t="n">
+        <v>71314.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>181512.84</v>
+        <v>10466.79</v>
       </c>
       <c r="C20" t="n">
-        <v>180844.9</v>
+        <v>10519.39</v>
       </c>
       <c r="D20" t="n">
-        <v>176578.46</v>
+        <v>10475.31</v>
       </c>
       <c r="E20" t="n">
-        <v>174848.46</v>
+        <v>10447.93</v>
       </c>
       <c r="F20" t="n">
-        <v>177738.02</v>
+        <v>10455.75</v>
       </c>
       <c r="G20" t="n">
-        <v>188442.2</v>
+        <v>10500.59</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10445.68</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10422.09</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10554.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10551.71</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10582.65</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10574.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17103.01</v>
+        <v>225352.3</v>
       </c>
       <c r="C21" t="n">
-        <v>16992.36</v>
+        <v>226172.57</v>
       </c>
       <c r="D21" t="n">
-        <v>16984.44</v>
+        <v>224526.15</v>
       </c>
       <c r="E21" t="n">
-        <v>17029.89</v>
+        <v>225190.32</v>
       </c>
       <c r="F21" t="n">
-        <v>16951.44</v>
+        <v>225622.17</v>
       </c>
       <c r="G21" t="n">
-        <v>16984.57</v>
+        <v>224149.91</v>
+      </c>
+      <c r="H21" t="n">
+        <v>225826.59</v>
+      </c>
+      <c r="I21" t="n">
+        <v>200204.98</v>
+      </c>
+      <c r="J21" t="n">
+        <v>199512.86</v>
+      </c>
+      <c r="K21" t="n">
+        <v>199612.99</v>
+      </c>
+      <c r="L21" t="n">
+        <v>179761.55</v>
+      </c>
+      <c r="M21" t="n">
+        <v>180021.74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87303.74000000001</v>
+        <v>373067.04</v>
       </c>
       <c r="C22" t="n">
-        <v>86721.66</v>
+        <v>373678.79</v>
       </c>
       <c r="D22" t="n">
-        <v>87151.53999999999</v>
+        <v>298774.06</v>
       </c>
       <c r="E22" t="n">
-        <v>87061.94</v>
+        <v>300057.58</v>
       </c>
       <c r="F22" t="n">
-        <v>87002.92</v>
+        <v>301529.09</v>
       </c>
       <c r="G22" t="n">
-        <v>86921.19</v>
+        <v>298650.39</v>
+      </c>
+      <c r="H22" t="n">
+        <v>301328.36</v>
+      </c>
+      <c r="I22" t="n">
+        <v>300340.42</v>
+      </c>
+      <c r="J22" t="n">
+        <v>301125.02</v>
+      </c>
+      <c r="K22" t="n">
+        <v>301135.34</v>
+      </c>
+      <c r="L22" t="n">
+        <v>294689.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>296021.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>740.4400000000001</v>
+        <v>124895.09</v>
       </c>
       <c r="C23" t="n">
-        <v>761.8</v>
+        <v>131053.92</v>
       </c>
       <c r="D23" t="n">
-        <v>782.67</v>
+        <v>168194.35</v>
       </c>
       <c r="E23" t="n">
-        <v>845.1900000000001</v>
+        <v>176396.93</v>
       </c>
       <c r="F23" t="n">
-        <v>831.95</v>
+        <v>174870.57</v>
       </c>
       <c r="G23" t="n">
-        <v>848.62</v>
+        <v>174192.17</v>
+      </c>
+      <c r="H23" t="n">
+        <v>207710.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>207440.39</v>
+      </c>
+      <c r="J23" t="n">
+        <v>207097</v>
+      </c>
+      <c r="K23" t="n">
+        <v>206696.39</v>
+      </c>
+      <c r="L23" t="n">
+        <v>205406.03</v>
+      </c>
+      <c r="M23" t="n">
+        <v>181512.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75626</v>
+        <v>15370.68</v>
       </c>
       <c r="C24" t="n">
-        <v>75436.49000000001</v>
+        <v>15379.56</v>
       </c>
       <c r="D24" t="n">
-        <v>75514.89</v>
+        <v>17174.76</v>
       </c>
       <c r="E24" t="n">
-        <v>75657.77</v>
+        <v>17193.72</v>
       </c>
       <c r="F24" t="n">
-        <v>75772.28999999999</v>
+        <v>17161.06</v>
       </c>
       <c r="G24" t="n">
-        <v>75845.97</v>
+        <v>17121.11</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17174.22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17175.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17107.71</v>
+      </c>
+      <c r="K24" t="n">
+        <v>17192.92</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17185.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>17103.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>301565.28</v>
+        <v>124539.94</v>
       </c>
       <c r="C25" t="n">
-        <v>302105.45</v>
+        <v>138404.74</v>
       </c>
       <c r="D25" t="n">
-        <v>302509.95</v>
+        <v>138298.64</v>
       </c>
       <c r="E25" t="n">
-        <v>301780.01</v>
+        <v>138385.52</v>
       </c>
       <c r="F25" t="n">
-        <v>302060.46</v>
+        <v>126094.86</v>
       </c>
       <c r="G25" t="n">
-        <v>302791.27</v>
+        <v>126250.33</v>
+      </c>
+      <c r="H25" t="n">
+        <v>125988.85</v>
+      </c>
+      <c r="I25" t="n">
+        <v>125553.12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>125932.08</v>
+      </c>
+      <c r="K25" t="n">
+        <v>101229.79</v>
+      </c>
+      <c r="L25" t="n">
+        <v>86799.24000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>87303.74000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>349336.36</v>
+        <v>740.3099999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>351932.79</v>
+        <v>731.4</v>
       </c>
       <c r="D26" t="n">
-        <v>349378.29</v>
+        <v>1309.52</v>
       </c>
       <c r="E26" t="n">
-        <v>350642.2</v>
+        <v>677.5700000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>352024.71</v>
+        <v>681.05</v>
       </c>
       <c r="G26" t="n">
-        <v>352191.17</v>
+        <v>679.13</v>
+      </c>
+      <c r="H26" t="n">
+        <v>679.4400000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>690.84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>705.49</v>
+      </c>
+      <c r="K26" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="L26" t="n">
+        <v>709.62</v>
+      </c>
+      <c r="M26" t="n">
+        <v>740.4400000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16006.01</v>
+        <v>103135.9</v>
       </c>
       <c r="C27" t="n">
-        <v>16375.84</v>
+        <v>103046.6</v>
       </c>
       <c r="D27" t="n">
-        <v>15463.56</v>
+        <v>75514.82000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>15673.45</v>
+        <v>75722.02</v>
       </c>
       <c r="F27" t="n">
-        <v>15498.45</v>
+        <v>75364.36</v>
       </c>
       <c r="G27" t="n">
-        <v>16018.12</v>
+        <v>75399.16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>75486.42</v>
+      </c>
+      <c r="I27" t="n">
+        <v>75468.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>75486.82000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>75419.91</v>
+      </c>
+      <c r="L27" t="n">
+        <v>75569.78</v>
+      </c>
+      <c r="M27" t="n">
+        <v>75626</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>327557.99</v>
-      </c>
-      <c r="C28" t="n">
-        <v>328613.46</v>
-      </c>
+        <v>303090.71</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>327649.68</v>
+        <v>301901.94</v>
       </c>
       <c r="E28" t="n">
-        <v>328569.02</v>
+        <v>302886.77</v>
       </c>
       <c r="F28" t="n">
-        <v>326989.36</v>
+        <v>302834.84</v>
       </c>
       <c r="G28" t="n">
-        <v>326954.53</v>
+        <v>301609.73</v>
+      </c>
+      <c r="H28" t="n">
+        <v>302232.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>302564.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>302187.23</v>
+      </c>
+      <c r="K28" t="n">
+        <v>301840.24</v>
+      </c>
+      <c r="L28" t="n">
+        <v>302194.07</v>
+      </c>
+      <c r="M28" t="n">
+        <v>301565.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240964.63</v>
+        <v>350780.68</v>
       </c>
       <c r="C29" t="n">
-        <v>228605.54</v>
+        <v>349269</v>
       </c>
       <c r="D29" t="n">
-        <v>228619.05</v>
+        <v>350408.99</v>
       </c>
       <c r="E29" t="n">
-        <v>230761.92</v>
+        <v>351660.83</v>
       </c>
       <c r="F29" t="n">
-        <v>227857.74</v>
+        <v>351928.49</v>
       </c>
       <c r="G29" t="n">
-        <v>248209.6</v>
+        <v>349834.03</v>
+      </c>
+      <c r="H29" t="n">
+        <v>350385.77</v>
+      </c>
+      <c r="I29" t="n">
+        <v>350960.59</v>
+      </c>
+      <c r="J29" t="n">
+        <v>351659.04</v>
+      </c>
+      <c r="K29" t="n">
+        <v>351290.88</v>
+      </c>
+      <c r="L29" t="n">
+        <v>352092.96</v>
+      </c>
+      <c r="M29" t="n">
+        <v>349336.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100278.56</v>
+        <v>16033.92</v>
       </c>
       <c r="C30" t="n">
-        <v>100136.1</v>
+        <v>15636.3</v>
       </c>
       <c r="D30" t="n">
-        <v>99595.72</v>
+        <v>15906.39</v>
       </c>
       <c r="E30" t="n">
-        <v>99905.86</v>
+        <v>16383.34</v>
       </c>
       <c r="F30" t="n">
-        <v>99624.89999999999</v>
+        <v>16017.96</v>
       </c>
       <c r="G30" t="n">
-        <v>99850.07000000001</v>
+        <v>15921.81</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15745.93</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15918.18</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15762.59</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15925.79</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15530.08</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16006.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>295220.8</v>
+        <v>327476.6</v>
       </c>
       <c r="C31" t="n">
-        <v>294931.11</v>
+        <v>328656.13</v>
       </c>
       <c r="D31" t="n">
-        <v>294432.05</v>
+        <v>328577.84</v>
       </c>
       <c r="E31" t="n">
-        <v>290121.62</v>
+        <v>328611.41</v>
       </c>
       <c r="F31" t="n">
-        <v>300393.25</v>
+        <v>328817.34</v>
       </c>
       <c r="G31" t="n">
-        <v>315527.72</v>
+        <v>328878.49</v>
+      </c>
+      <c r="H31" t="n">
+        <v>328223.09</v>
+      </c>
+      <c r="I31" t="n">
+        <v>327759.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>328498.36</v>
+      </c>
+      <c r="K31" t="n">
+        <v>327900.82</v>
+      </c>
+      <c r="L31" t="n">
+        <v>327812.72</v>
+      </c>
+      <c r="M31" t="n">
+        <v>327557.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
+          <t>Rofex 20 Renta Variable</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>245846.51</v>
+      </c>
+      <c r="C32" t="n">
+        <v>245588.31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>231576.05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>227033.97</v>
+      </c>
+      <c r="F32" t="n">
+        <v>245630.66</v>
+      </c>
+      <c r="G32" t="n">
+        <v>248479.12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>248048.14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>249204.87</v>
+      </c>
+      <c r="J32" t="n">
+        <v>248588.65</v>
+      </c>
+      <c r="K32" t="n">
+        <v>247945.83</v>
+      </c>
+      <c r="L32" t="n">
+        <v>248746.49</v>
+      </c>
+      <c r="M32" t="n">
+        <v>240964.63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3197643.34</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3616847.15</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3612324.39</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>100109.46</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100136.78</v>
+      </c>
+      <c r="D34" t="n">
+        <v>100007.61</v>
+      </c>
+      <c r="E34" t="n">
+        <v>99926.55</v>
+      </c>
+      <c r="F34" t="n">
+        <v>99847.33</v>
+      </c>
+      <c r="G34" t="n">
+        <v>100328.33</v>
+      </c>
+      <c r="H34" t="n">
+        <v>99723.99000000001</v>
+      </c>
+      <c r="I34" t="n">
+        <v>100033.84</v>
+      </c>
+      <c r="J34" t="n">
+        <v>99913.64</v>
+      </c>
+      <c r="K34" t="n">
+        <v>99732.23</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100361.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>100278.56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>476929.72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>403211.28</v>
+      </c>
+      <c r="D35" t="n">
+        <v>472137.59</v>
+      </c>
+      <c r="E35" t="n">
+        <v>321736.41</v>
+      </c>
+      <c r="F35" t="n">
+        <v>320870.86</v>
+      </c>
+      <c r="G35" t="n">
+        <v>315547.8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>316521.33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>313406.04</v>
+      </c>
+      <c r="J35" t="n">
+        <v>308427.85</v>
+      </c>
+      <c r="K35" t="n">
+        <v>304272.77</v>
+      </c>
+      <c r="L35" t="n">
+        <v>295212.76</v>
+      </c>
+      <c r="M35" t="n">
+        <v>295220.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
+        <v>15738680.62</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11289915.78</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15580540.51</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9330355.869999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9305254.859999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9150886.130000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9179118.539999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9088775.279999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8944407.640000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8823910.23</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8561169.9</v>
+      </c>
+      <c r="M36" t="n">
         <v>8561403.289999999</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8553002.1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>8538529.42</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8413526.859999999</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8711404.109999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>9150303.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>605392.62</v>
+        <v>318908.93</v>
       </c>
       <c r="C2" t="n">
-        <v>640930.23</v>
+        <v>318136.98</v>
       </c>
       <c r="D2" t="n">
-        <v>580877.9</v>
+        <v>319986.93</v>
       </c>
       <c r="E2" t="n">
-        <v>580181.48</v>
+        <v>320163.69</v>
       </c>
       <c r="F2" t="n">
-        <v>578593.71</v>
+        <v>319740.71</v>
       </c>
       <c r="G2" t="n">
-        <v>578575.52</v>
+        <v>318543.88</v>
       </c>
       <c r="H2" t="n">
-        <v>581063.8</v>
+        <v>319269.29</v>
       </c>
       <c r="I2" t="n">
-        <v>520895.73</v>
+        <v>318982.57</v>
       </c>
       <c r="J2" t="n">
-        <v>520708.03</v>
+        <v>374176.48</v>
       </c>
       <c r="K2" t="n">
-        <v>460127.37</v>
+        <v>374007.03</v>
       </c>
       <c r="L2" t="n">
-        <v>319788.16</v>
+        <v>373763.66</v>
       </c>
       <c r="M2" t="n">
-        <v>318908.93</v>
+        <v>373864.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>372316.33</v>
+      </c>
+      <c r="O2" t="n">
+        <v>374930.64</v>
+      </c>
+      <c r="P2" t="n">
+        <v>374221.73</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>325991.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>324058.62</v>
+      </c>
+      <c r="S2" t="n">
+        <v>323788.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>325693.29</v>
+      </c>
+      <c r="U2" t="n">
+        <v>230419.29</v>
+      </c>
+      <c r="V2" t="n">
+        <v>313121.22</v>
+      </c>
+      <c r="W2" t="n">
+        <v>312101.23</v>
+      </c>
+      <c r="X2" t="n">
+        <v>381680.16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>308795.31</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>312667.71</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>308381.83</v>
       </c>
     </row>
     <row r="3">
@@ -545,1377 +657,2547 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>990529.11</v>
+        <v>1051954.17</v>
       </c>
       <c r="C3" t="n">
-        <v>988874.8199999999</v>
+        <v>1051454.63</v>
       </c>
       <c r="D3" t="n">
-        <v>1044909.57</v>
+        <v>1052635.69</v>
       </c>
       <c r="E3" t="n">
-        <v>1047830.15</v>
+        <v>1050638.96</v>
       </c>
       <c r="F3" t="n">
-        <v>1048418.21</v>
+        <v>1052109.03</v>
       </c>
       <c r="G3" t="n">
-        <v>1048010.21</v>
+        <v>1135872.69</v>
       </c>
       <c r="H3" t="n">
-        <v>1044414.27</v>
+        <v>1137757.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1048289.57</v>
+        <v>1137224.09</v>
       </c>
       <c r="J3" t="n">
-        <v>1048470.72</v>
+        <v>1138517.74</v>
       </c>
       <c r="K3" t="n">
-        <v>1044764.55</v>
+        <v>1140206.58</v>
       </c>
       <c r="L3" t="n">
-        <v>989233.66</v>
+        <v>1140185.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1051954.17</v>
+        <v>1135357.88</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1140028.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1139807.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1138446.42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1223682.89</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1216887.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1224558.21</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1213438.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1217886.18</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1219219.72</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1318125.53</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1318270.01</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1319957.84</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1315146.45</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1313711.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap Balanceado V</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295014.52</v>
+        <v>111245.5</v>
       </c>
       <c r="C4" t="n">
-        <v>266099.34</v>
+        <v>111626.44</v>
       </c>
       <c r="D4" t="n">
-        <v>238126.38</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>111207.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>110961.86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>110835</v>
+      </c>
+      <c r="G4" t="n">
+        <v>111678.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>110839.82</v>
+      </c>
+      <c r="I4" t="n">
+        <v>110962.08</v>
+      </c>
+      <c r="J4" t="n">
+        <v>111321.16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>111424.27</v>
+      </c>
+      <c r="L4" t="n">
+        <v>111208.07</v>
+      </c>
+      <c r="M4" t="n">
+        <v>111845.93</v>
+      </c>
+      <c r="N4" t="n">
+        <v>110182.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>111846.58</v>
+      </c>
+      <c r="P4" t="n">
+        <v>110767.65</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>111847.81</v>
+      </c>
+      <c r="R4" t="n">
+        <v>111413.83</v>
+      </c>
+      <c r="S4" t="n">
+        <v>111975.83</v>
+      </c>
+      <c r="T4" t="n">
+        <v>112046.92</v>
+      </c>
+      <c r="U4" t="n">
+        <v>87034.96000000001</v>
+      </c>
+      <c r="V4" t="n">
+        <v>86018.67999999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>86516.02</v>
+      </c>
+      <c r="X4" t="n">
+        <v>86636.92999999999</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>85844.92</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>85527.94</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>86347.14999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19732</v>
+        <v>89072.35000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>19635.72</v>
+        <v>88918.50999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>110925.02</v>
+        <v>89770.39999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>111242.02</v>
+        <v>88871.89999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>111653.11</v>
+        <v>90132.8</v>
       </c>
       <c r="G5" t="n">
-        <v>111146.71</v>
+        <v>320264.12</v>
       </c>
       <c r="H5" t="n">
-        <v>111053.19</v>
+        <v>320652.8</v>
       </c>
       <c r="I5" t="n">
-        <v>111279.12</v>
+        <v>321133.08</v>
       </c>
       <c r="J5" t="n">
-        <v>110847.61</v>
+        <v>364429.29</v>
       </c>
       <c r="K5" t="n">
-        <v>111639.02</v>
+        <v>364677.12</v>
       </c>
       <c r="L5" t="n">
-        <v>110848.7</v>
+        <v>365095.92</v>
       </c>
       <c r="M5" t="n">
-        <v>111245.5</v>
+        <v>365080.83</v>
+      </c>
+      <c r="N5" t="n">
+        <v>365484.98</v>
+      </c>
+      <c r="O5" t="n">
+        <v>364972.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>365079.32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>363678.06</v>
+      </c>
+      <c r="R5" t="n">
+        <v>364770.32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>364662.61</v>
+      </c>
+      <c r="T5" t="n">
+        <v>365914</v>
+      </c>
+      <c r="U5" t="n">
+        <v>366343.41</v>
+      </c>
+      <c r="V5" t="n">
+        <v>366305.19</v>
+      </c>
+      <c r="W5" t="n">
+        <v>366384.56</v>
+      </c>
+      <c r="X5" t="n">
+        <v>366266.62</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>366641.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>363460.02</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>364019.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>532629.02</v>
+        <v>390050.86</v>
       </c>
       <c r="C6" t="n">
-        <v>477053.67</v>
+        <v>390989.17</v>
       </c>
       <c r="D6" t="n">
-        <v>427489.72</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>390260.43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>390252.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>390300.52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>391112.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>390800.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>272705.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>272370.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>273716.88</v>
+      </c>
+      <c r="L6" t="n">
+        <v>273572.53</v>
+      </c>
+      <c r="M6" t="n">
+        <v>272018.41</v>
+      </c>
+      <c r="N6" t="n">
+        <v>273172.73</v>
+      </c>
+      <c r="O6" t="n">
+        <v>273259.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>270995.36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>274658.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>275019.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>272464.06</v>
+      </c>
+      <c r="T6" t="n">
+        <v>270269.37</v>
+      </c>
+      <c r="U6" t="n">
+        <v>272815.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>270681.68</v>
+      </c>
+      <c r="W6" t="n">
+        <v>273736.89</v>
+      </c>
+      <c r="X6" t="n">
+        <v>275071.93</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>271979.59</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>270711.7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>274464.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78538.86</v>
+        <v>1264943.5</v>
       </c>
       <c r="C7" t="n">
-        <v>78354.11</v>
+        <v>1264120.64</v>
       </c>
       <c r="D7" t="n">
-        <v>89594.92999999999</v>
+        <v>1265180.54</v>
       </c>
       <c r="E7" t="n">
-        <v>89160.12</v>
+        <v>1137752.58</v>
       </c>
       <c r="F7" t="n">
-        <v>89165.28</v>
+        <v>1137697.97</v>
       </c>
       <c r="G7" t="n">
-        <v>89090.13</v>
+        <v>1137410.67</v>
       </c>
       <c r="H7" t="n">
-        <v>89357.75999999999</v>
+        <v>1138718.32</v>
       </c>
       <c r="I7" t="n">
-        <v>89638.60000000001</v>
+        <v>1064263.84</v>
       </c>
       <c r="J7" t="n">
-        <v>89302.82000000001</v>
+        <v>1064581.44</v>
       </c>
       <c r="K7" t="n">
-        <v>89038.81</v>
+        <v>1062950.33</v>
       </c>
       <c r="L7" t="n">
-        <v>89112.74000000001</v>
+        <v>1060109.08</v>
       </c>
       <c r="M7" t="n">
-        <v>89072.35000000001</v>
+        <v>1064471.33</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1059858.24</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1061780.37</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1063355.02</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1064066.16</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1061690.63</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1063933.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1059063.19</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1061004.89</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1064585.9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1065524.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1061371.34</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1062402.81</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1062455.65</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1062798.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>389064.75</v>
+        <v>1056266.31</v>
       </c>
       <c r="C8" t="n">
-        <v>390001.9</v>
+        <v>1060442.67</v>
       </c>
       <c r="D8" t="n">
-        <v>390750.27</v>
+        <v>1047905.33</v>
       </c>
       <c r="E8" t="n">
-        <v>389485.99</v>
+        <v>1064335.92</v>
       </c>
       <c r="F8" t="n">
-        <v>389349.33</v>
+        <v>1056453.65</v>
       </c>
       <c r="G8" t="n">
-        <v>388653.69</v>
+        <v>1048561.84</v>
       </c>
       <c r="H8" t="n">
-        <v>390188.99</v>
+        <v>1060125.18</v>
       </c>
       <c r="I8" t="n">
-        <v>389134.84</v>
+        <v>1050002.33</v>
       </c>
       <c r="J8" t="n">
-        <v>389110.71</v>
+        <v>1064343.83</v>
       </c>
       <c r="K8" t="n">
-        <v>390012.56</v>
+        <v>1060102.83</v>
       </c>
       <c r="L8" t="n">
-        <v>390538.11</v>
+        <v>1049825.57</v>
       </c>
       <c r="M8" t="n">
-        <v>390050.86</v>
+        <v>1053385.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1061219.69</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1057996.77</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1050036.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1054031.86</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1056191.69</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1065315.66</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1055260.6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1045391.34</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1043927.46</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1056237.26</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1053338.09</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>609326.64</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>595524.48</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>606471.6899999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1389912.42</v>
+        <v>4616.16</v>
       </c>
       <c r="C9" t="n">
-        <v>1389806.51</v>
+        <v>4599.33</v>
       </c>
       <c r="D9" t="n">
-        <v>1387919.04</v>
+        <v>4596.03</v>
       </c>
       <c r="E9" t="n">
-        <v>1386810.11</v>
+        <v>4597.67</v>
       </c>
       <c r="F9" t="n">
-        <v>1389677.7</v>
+        <v>4616.36</v>
       </c>
       <c r="G9" t="n">
-        <v>1389403.75</v>
+        <v>4595.46</v>
       </c>
       <c r="H9" t="n">
-        <v>1385826.48</v>
+        <v>4613.83</v>
       </c>
       <c r="I9" t="n">
-        <v>1387714.84</v>
+        <v>4593.65</v>
       </c>
       <c r="J9" t="n">
-        <v>1263526.68</v>
+        <v>4595.13</v>
       </c>
       <c r="K9" t="n">
-        <v>1267635.02</v>
+        <v>4603.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1267871.08</v>
+        <v>23071.78</v>
       </c>
       <c r="M9" t="n">
-        <v>1264943.5</v>
+        <v>23178.44</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23069.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7484.54</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7355.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7364.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7372.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7385.47</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7347.46</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7381.21</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7377.61</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7329.11</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7352.28</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7369.64</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7349.28</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7109.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053603.04</v>
+        <v>5522.2</v>
       </c>
       <c r="C10" t="n">
-        <v>1048935.77</v>
+        <v>5514.54</v>
       </c>
       <c r="D10" t="n">
-        <v>1051332.45</v>
+        <v>5503.94</v>
       </c>
       <c r="E10" t="n">
-        <v>1050810.89</v>
+        <v>5514.15</v>
       </c>
       <c r="F10" t="n">
-        <v>1058675.89</v>
+        <v>5537.47</v>
       </c>
       <c r="G10" t="n">
-        <v>1059109.71</v>
+        <v>5513.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1057100.71</v>
+        <v>5509.71</v>
       </c>
       <c r="I10" t="n">
-        <v>1051827.64</v>
+        <v>5501.22</v>
       </c>
       <c r="J10" t="n">
-        <v>1054068.48</v>
+        <v>5538.27</v>
       </c>
       <c r="K10" t="n">
-        <v>1055538.6</v>
+        <v>5524.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1051958.19</v>
+        <v>5530.02</v>
       </c>
       <c r="M10" t="n">
-        <v>1056266.31</v>
+        <v>4988.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4997.39</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4976.75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5005.26</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5015.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4985.74</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4992.28</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4994.15</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4979.54</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4982.99</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4989.55</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5017.97</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4978.63</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4972.86</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4985.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38732.12</v>
+        <v>8366.18</v>
       </c>
       <c r="C11" t="n">
-        <v>38634.65</v>
+        <v>8616.85</v>
       </c>
       <c r="D11" t="n">
-        <v>38766.28</v>
+        <v>8823.450000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>38720.62</v>
+        <v>9721.16</v>
       </c>
       <c r="F11" t="n">
-        <v>38587.81</v>
+        <v>9679.93</v>
       </c>
       <c r="G11" t="n">
-        <v>38468.14</v>
+        <v>5009.04</v>
       </c>
       <c r="H11" t="n">
-        <v>38496.34</v>
+        <v>5005.02</v>
       </c>
       <c r="I11" t="n">
-        <v>38480.42</v>
+        <v>5100.43</v>
       </c>
       <c r="J11" t="n">
-        <v>38787.7</v>
+        <v>5007.24</v>
       </c>
       <c r="K11" t="n">
-        <v>4597.88</v>
+        <v>4942.89</v>
       </c>
       <c r="L11" t="n">
-        <v>4607.72</v>
+        <v>5031.82</v>
       </c>
       <c r="M11" t="n">
-        <v>4616.16</v>
+        <v>5687.62</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5999.34</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6495.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6912.64</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7488.49</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8068.33</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7760.08</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7338.57</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7903.44</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8650.98</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8443.77</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8245.870000000001</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8231.91</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8676.280000000001</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8672.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5529.2</v>
+        <v>166781.14</v>
       </c>
       <c r="C12" t="n">
-        <v>5520.34</v>
+        <v>166677.64</v>
       </c>
       <c r="D12" t="n">
-        <v>5505.78</v>
+        <v>167540.67</v>
       </c>
       <c r="E12" t="n">
-        <v>5535.31</v>
+        <v>168108.81</v>
       </c>
       <c r="F12" t="n">
-        <v>5539.23</v>
+        <v>168408.89</v>
       </c>
       <c r="G12" t="n">
-        <v>5523.23</v>
+        <v>166259.82</v>
       </c>
       <c r="H12" t="n">
-        <v>5526.9</v>
+        <v>164386.52</v>
       </c>
       <c r="I12" t="n">
-        <v>5511.85</v>
+        <v>168428.04</v>
       </c>
       <c r="J12" t="n">
-        <v>5517.86</v>
+        <v>165772.12</v>
       </c>
       <c r="K12" t="n">
-        <v>5520.22</v>
+        <v>165494.63</v>
       </c>
       <c r="L12" t="n">
-        <v>5517.38</v>
+        <v>167804.56</v>
       </c>
       <c r="M12" t="n">
-        <v>5522.2</v>
+        <v>166066.9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>166636.69</v>
+      </c>
+      <c r="O12" t="n">
+        <v>165642.51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>164779.42</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>169423.71</v>
+      </c>
+      <c r="R12" t="n">
+        <v>168177.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>169672.85</v>
+      </c>
+      <c r="T12" t="n">
+        <v>168333.44</v>
+      </c>
+      <c r="U12" t="n">
+        <v>169739.38</v>
+      </c>
+      <c r="V12" t="n">
+        <v>164206.72</v>
+      </c>
+      <c r="W12" t="n">
+        <v>165183.11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>165638.35</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>164207.85</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>162630.48</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>166527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8645.709999999999</v>
+        <v>158676.45</v>
       </c>
       <c r="C13" t="n">
-        <v>8929.639999999999</v>
+        <v>160478.96</v>
       </c>
       <c r="D13" t="n">
-        <v>7821.25</v>
+        <v>160182.78</v>
       </c>
       <c r="E13" t="n">
-        <v>8221.93</v>
+        <v>162351.88</v>
       </c>
       <c r="F13" t="n">
-        <v>8297.32</v>
+        <v>158612.61</v>
       </c>
       <c r="G13" t="n">
-        <v>8329.129999999999</v>
+        <v>160116.33</v>
       </c>
       <c r="H13" t="n">
-        <v>8418.32</v>
+        <v>162021.41</v>
       </c>
       <c r="I13" t="n">
-        <v>8490.450000000001</v>
+        <v>160785.23</v>
       </c>
       <c r="J13" t="n">
-        <v>8456.16</v>
+        <v>161420.91</v>
       </c>
       <c r="K13" t="n">
-        <v>8580.24</v>
+        <v>159574.92</v>
       </c>
       <c r="L13" t="n">
-        <v>8086.7</v>
+        <v>161962.28</v>
       </c>
       <c r="M13" t="n">
-        <v>8366.18</v>
+        <v>160916.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>163080.53</v>
+      </c>
+      <c r="O13" t="n">
+        <v>158106.27</v>
+      </c>
+      <c r="P13" t="n">
+        <v>158086.88</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>161565.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>159393.43</v>
+      </c>
+      <c r="S13" t="n">
+        <v>158730.71</v>
+      </c>
+      <c r="T13" t="n">
+        <v>161544.22</v>
+      </c>
+      <c r="U13" t="n">
+        <v>159533.86</v>
+      </c>
+      <c r="V13" t="n">
+        <v>157380.73</v>
+      </c>
+      <c r="W13" t="n">
+        <v>161189.33</v>
+      </c>
+      <c r="X13" t="n">
+        <v>157369.61</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>157627.91</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>160305.68</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>162943.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578167.38</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>1477652.36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1475242.82</v>
+      </c>
       <c r="D14" t="n">
-        <v>2069418.1</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>1477748.94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1456912.76</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1566404.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1611985.92</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1585305.28</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1647512.53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1698550.03</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1705554.88</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1706287.06</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1698468.81</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1718084.81</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1667045.08</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1666005.71</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1559905.46</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1586469.02</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1590715.75</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1585172.34</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1462763.92</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1458431.12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1466544.01</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1468483.28</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1361366.66</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1352174.17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1244450.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166921.24</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>201420.81</v>
+      </c>
+      <c r="C15" t="n">
+        <v>202094.04</v>
+      </c>
       <c r="D15" t="n">
-        <v>167305.91</v>
+        <v>201175.48</v>
       </c>
       <c r="E15" t="n">
-        <v>167748.13</v>
+        <v>204341.83</v>
       </c>
       <c r="F15" t="n">
-        <v>168028.32</v>
+        <v>402453.06</v>
       </c>
       <c r="G15" t="n">
-        <v>166474.34</v>
+        <v>461359.95</v>
       </c>
       <c r="H15" t="n">
-        <v>165156.29</v>
+        <v>460506.19</v>
       </c>
       <c r="I15" t="n">
-        <v>168154.47</v>
+        <v>488573.68</v>
       </c>
       <c r="J15" t="n">
-        <v>165711.13</v>
+        <v>488800.3</v>
       </c>
       <c r="K15" t="n">
-        <v>168245.76</v>
+        <v>489293.97</v>
       </c>
       <c r="L15" t="n">
-        <v>165175.97</v>
+        <v>486423.08</v>
       </c>
       <c r="M15" t="n">
-        <v>166781.14</v>
+        <v>486711.57</v>
+      </c>
+      <c r="N15" t="n">
+        <v>488666.89</v>
+      </c>
+      <c r="O15" t="n">
+        <v>487181.11</v>
+      </c>
+      <c r="P15" t="n">
+        <v>490122.87</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>487967.51</v>
+      </c>
+      <c r="R15" t="n">
+        <v>484618.17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>484624.74</v>
+      </c>
+      <c r="T15" t="n">
+        <v>484152.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>389319.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>385002.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>389208.93</v>
+      </c>
+      <c r="X15" t="n">
+        <v>391286.29</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>385063.02</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>383309.21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>386627.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160622.95</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>71314.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>71781.19</v>
+      </c>
       <c r="D16" t="n">
-        <v>160985.98</v>
+        <v>71351.00999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>158990.44</v>
+        <v>71844.05</v>
       </c>
       <c r="F16" t="n">
-        <v>159073.96</v>
+        <v>71644.61</v>
       </c>
       <c r="G16" t="n">
-        <v>160184.58</v>
+        <v>71475.64999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>160024.89</v>
+        <v>71710.96000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>161811.91</v>
+        <v>71481.75</v>
       </c>
       <c r="J16" t="n">
-        <v>162003.5</v>
+        <v>71384.95</v>
       </c>
       <c r="K16" t="n">
-        <v>161850.03</v>
+        <v>71888.83</v>
       </c>
       <c r="L16" t="n">
-        <v>159627.04</v>
+        <v>71580.46000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>158676.45</v>
+        <v>71255.57000000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>71528.87</v>
+      </c>
+      <c r="O16" t="n">
+        <v>71153.75</v>
+      </c>
+      <c r="P16" t="n">
+        <v>71694.17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>71533.87</v>
+      </c>
+      <c r="R16" t="n">
+        <v>71309.78999999999</v>
+      </c>
+      <c r="S16" t="n">
+        <v>71976.53999999999</v>
+      </c>
+      <c r="T16" t="n">
+        <v>71481.94</v>
+      </c>
+      <c r="U16" t="n">
+        <v>71821.42</v>
+      </c>
+      <c r="V16" t="n">
+        <v>71431.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>72181.46000000001</v>
+      </c>
+      <c r="X16" t="n">
+        <v>71092.95</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>71528.38</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>71780.67</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>71079.60000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1624102.04</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>10574.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10443.67</v>
+      </c>
       <c r="D17" t="n">
-        <v>1661696.51</v>
+        <v>10590.57</v>
       </c>
       <c r="E17" t="n">
-        <v>1750587.62</v>
+        <v>10557.55</v>
       </c>
       <c r="F17" t="n">
-        <v>1711432.57</v>
+        <v>10511.75</v>
       </c>
       <c r="G17" t="n">
-        <v>1562002.18</v>
+        <v>10517.34</v>
       </c>
       <c r="H17" t="n">
-        <v>1561071.41</v>
+        <v>10567.69</v>
       </c>
       <c r="I17" t="n">
-        <v>1550292.96</v>
+        <v>10403.69</v>
       </c>
       <c r="J17" t="n">
-        <v>1530747.01</v>
+        <v>10472.24</v>
       </c>
       <c r="K17" t="n">
-        <v>1525569.45</v>
+        <v>10510.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1507539.27</v>
+        <v>10481.97</v>
       </c>
       <c r="M17" t="n">
-        <v>1477652.36</v>
+        <v>10448.8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10528.26</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10492.66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10451.51</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>10609.11</v>
+      </c>
+      <c r="R17" t="n">
+        <v>10551.51</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10399.43</v>
+      </c>
+      <c r="T17" t="n">
+        <v>10402.05</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10480.32</v>
+      </c>
+      <c r="V17" t="n">
+        <v>10433.86</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10460.24</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10458.44</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10498.73</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10456.68</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10395.96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>201704.83</v>
+        <v>180021.74</v>
       </c>
       <c r="C18" t="n">
-        <v>200380.02</v>
+        <v>179355.89</v>
       </c>
       <c r="D18" t="n">
-        <v>200371.95</v>
+        <v>179237.92</v>
       </c>
       <c r="E18" t="n">
-        <v>202743.07</v>
+        <v>179359.06</v>
       </c>
       <c r="F18" t="n">
-        <v>200441.24</v>
+        <v>179857.16</v>
       </c>
       <c r="G18" t="n">
-        <v>202555.29</v>
+        <v>179969.56</v>
       </c>
       <c r="H18" t="n">
-        <v>200728.91</v>
+        <v>180254.02</v>
       </c>
       <c r="I18" t="n">
-        <v>202227.25</v>
+        <v>179716.06</v>
       </c>
       <c r="J18" t="n">
-        <v>201290.42</v>
+        <v>180470.77</v>
       </c>
       <c r="K18" t="n">
-        <v>202286.62</v>
+        <v>179658.14</v>
       </c>
       <c r="L18" t="n">
-        <v>202235.7</v>
+        <v>180544.9</v>
       </c>
       <c r="M18" t="n">
-        <v>201420.81</v>
+        <v>179707.22</v>
+      </c>
+      <c r="N18" t="n">
+        <v>179745.85</v>
+      </c>
+      <c r="O18" t="n">
+        <v>179392.26</v>
+      </c>
+      <c r="P18" t="n">
+        <v>180453.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>179108.32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>179300.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>180905.94</v>
+      </c>
+      <c r="T18" t="n">
+        <v>180773.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>179870.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>179132.23</v>
+      </c>
+      <c r="W18" t="n">
+        <v>179184.36</v>
+      </c>
+      <c r="X18" t="n">
+        <v>178954.75</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>180348.34</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>180796.38</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>181304.94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81289.53999999999</v>
+        <v>296021.42</v>
       </c>
       <c r="C19" t="n">
-        <v>81638.42</v>
+        <v>293981.74</v>
       </c>
       <c r="D19" t="n">
-        <v>71772.64999999999</v>
+        <v>294603.59</v>
       </c>
       <c r="E19" t="n">
-        <v>71713.53</v>
+        <v>294465.18</v>
       </c>
       <c r="F19" t="n">
-        <v>71465.64999999999</v>
+        <v>294056.15</v>
       </c>
       <c r="G19" t="n">
-        <v>71365.22</v>
+        <v>294999.85</v>
       </c>
       <c r="H19" t="n">
-        <v>71690.60000000001</v>
+        <v>293655.56</v>
       </c>
       <c r="I19" t="n">
-        <v>71289.36</v>
+        <v>294529.17</v>
       </c>
       <c r="J19" t="n">
-        <v>71727.52</v>
+        <v>295994.59</v>
       </c>
       <c r="K19" t="n">
-        <v>71313.97</v>
+        <v>295199.72</v>
       </c>
       <c r="L19" t="n">
-        <v>71587.73</v>
+        <v>293297</v>
       </c>
       <c r="M19" t="n">
-        <v>71314.25</v>
+        <v>296206.73</v>
+      </c>
+      <c r="N19" t="n">
+        <v>296874.17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>292865.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>294916.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>293166.74</v>
+      </c>
+      <c r="R19" t="n">
+        <v>294260.75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>293519.37</v>
+      </c>
+      <c r="T19" t="n">
+        <v>295901.66</v>
+      </c>
+      <c r="U19" t="n">
+        <v>295316.74</v>
+      </c>
+      <c r="V19" t="n">
+        <v>294216.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>293583.43</v>
+      </c>
+      <c r="X19" t="n">
+        <v>296496.79</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>293588.18</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>295823.05</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>295892.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10466.79</v>
+        <v>181512.84</v>
       </c>
       <c r="C20" t="n">
-        <v>10519.39</v>
+        <v>180844.9</v>
       </c>
       <c r="D20" t="n">
-        <v>10475.31</v>
+        <v>176578.46</v>
       </c>
       <c r="E20" t="n">
-        <v>10447.93</v>
+        <v>174848.46</v>
       </c>
       <c r="F20" t="n">
-        <v>10455.75</v>
+        <v>177738.02</v>
       </c>
       <c r="G20" t="n">
-        <v>10500.59</v>
+        <v>188442.2</v>
       </c>
       <c r="H20" t="n">
-        <v>10445.68</v>
+        <v>193645.82</v>
       </c>
       <c r="I20" t="n">
-        <v>10422.09</v>
+        <v>200170.78</v>
       </c>
       <c r="J20" t="n">
-        <v>10554.8</v>
+        <v>204227.44</v>
       </c>
       <c r="K20" t="n">
-        <v>10551.71</v>
+        <v>214715.31</v>
       </c>
       <c r="L20" t="n">
-        <v>10582.65</v>
+        <v>213772.61</v>
       </c>
       <c r="M20" t="n">
-        <v>10574.1</v>
+        <v>249310.48</v>
+      </c>
+      <c r="N20" t="n">
+        <v>248507.19</v>
+      </c>
+      <c r="O20" t="n">
+        <v>255000.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>262271.11</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>261001.17</v>
+      </c>
+      <c r="R20" t="n">
+        <v>261860.67</v>
+      </c>
+      <c r="S20" t="n">
+        <v>262293.27</v>
+      </c>
+      <c r="T20" t="n">
+        <v>227902.88</v>
+      </c>
+      <c r="U20" t="n">
+        <v>199430.96</v>
+      </c>
+      <c r="V20" t="n">
+        <v>195108.69</v>
+      </c>
+      <c r="W20" t="n">
+        <v>191130.81</v>
+      </c>
+      <c r="X20" t="n">
+        <v>198113.79</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>164839.96</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>179726.83</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>180588.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>225352.3</v>
+        <v>17103.01</v>
       </c>
       <c r="C21" t="n">
-        <v>226172.57</v>
+        <v>16992.36</v>
       </c>
       <c r="D21" t="n">
-        <v>224526.15</v>
+        <v>16984.44</v>
       </c>
       <c r="E21" t="n">
-        <v>225190.32</v>
+        <v>17029.89</v>
       </c>
       <c r="F21" t="n">
-        <v>225622.17</v>
+        <v>16951.44</v>
       </c>
       <c r="G21" t="n">
-        <v>224149.91</v>
+        <v>16984.57</v>
       </c>
       <c r="H21" t="n">
-        <v>225826.59</v>
+        <v>16994.4</v>
       </c>
       <c r="I21" t="n">
-        <v>200204.98</v>
+        <v>16987.33</v>
       </c>
       <c r="J21" t="n">
-        <v>199512.86</v>
+        <v>17019.95</v>
       </c>
       <c r="K21" t="n">
-        <v>199612.99</v>
+        <v>17039.79</v>
       </c>
       <c r="L21" t="n">
-        <v>179761.55</v>
+        <v>17016.57</v>
       </c>
       <c r="M21" t="n">
-        <v>180021.74</v>
+        <v>17008</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17019.66</v>
+      </c>
+      <c r="O21" t="n">
+        <v>17016.79</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17002.73</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>17035.27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>17009.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16921.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>16930.96</v>
+      </c>
+      <c r="U21" t="n">
+        <v>16987.05</v>
+      </c>
+      <c r="V21" t="n">
+        <v>16921.29</v>
+      </c>
+      <c r="W21" t="n">
+        <v>17036.96</v>
+      </c>
+      <c r="X21" t="n">
+        <v>16079.6</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>16091.67</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>16019.63</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15992.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373067.04</v>
+        <v>87303.74000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>373678.79</v>
+        <v>86721.66</v>
       </c>
       <c r="D22" t="n">
-        <v>298774.06</v>
+        <v>87151.53999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>300057.58</v>
+        <v>87061.94</v>
       </c>
       <c r="F22" t="n">
-        <v>301529.09</v>
+        <v>87002.92</v>
       </c>
       <c r="G22" t="n">
-        <v>298650.39</v>
+        <v>86921.19</v>
       </c>
       <c r="H22" t="n">
-        <v>301328.36</v>
+        <v>87014.17</v>
       </c>
       <c r="I22" t="n">
-        <v>300340.42</v>
+        <v>86892.35000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>301125.02</v>
+        <v>139390.81</v>
       </c>
       <c r="K22" t="n">
-        <v>301135.34</v>
+        <v>139291.33</v>
       </c>
       <c r="L22" t="n">
-        <v>294689.75</v>
+        <v>157873.26</v>
       </c>
       <c r="M22" t="n">
-        <v>296021.42</v>
+        <v>210480.2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>191629.84</v>
+      </c>
+      <c r="O22" t="n">
+        <v>191644.79</v>
+      </c>
+      <c r="P22" t="n">
+        <v>190966.03</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>210081.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>209502.61</v>
+      </c>
+      <c r="S22" t="n">
+        <v>227538.67</v>
+      </c>
+      <c r="T22" t="n">
+        <v>200925.1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>200695.38</v>
+      </c>
+      <c r="V22" t="n">
+        <v>234015.16</v>
+      </c>
+      <c r="W22" t="n">
+        <v>232656.05</v>
+      </c>
+      <c r="X22" t="n">
+        <v>233130.27</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>254718.23</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>229175.76</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>230086.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>124895.09</v>
+        <v>740.4400000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>131053.92</v>
+        <v>761.8</v>
       </c>
       <c r="D23" t="n">
-        <v>168194.35</v>
+        <v>782.67</v>
       </c>
       <c r="E23" t="n">
-        <v>176396.93</v>
+        <v>845.1900000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>174870.57</v>
+        <v>831.95</v>
       </c>
       <c r="G23" t="n">
-        <v>174192.17</v>
+        <v>848.62</v>
       </c>
       <c r="H23" t="n">
-        <v>207710.6</v>
+        <v>853.45</v>
       </c>
       <c r="I23" t="n">
-        <v>207440.39</v>
+        <v>859.1900000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>207097</v>
+        <v>835.35</v>
       </c>
       <c r="K23" t="n">
-        <v>206696.39</v>
+        <v>826.71</v>
       </c>
       <c r="L23" t="n">
-        <v>205406.03</v>
+        <v>820.33</v>
       </c>
       <c r="M23" t="n">
-        <v>181512.84</v>
+        <v>848.1900000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>870.65</v>
+      </c>
+      <c r="O23" t="n">
+        <v>915.8200000000001</v>
+      </c>
+      <c r="P23" t="n">
+        <v>946.4400000000001</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1082.9</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1128.78</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1094.59</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1096.84</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3590.34</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3792.13</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3674.91</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3518.49</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3626.61</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3624.08</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3708.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15370.68</v>
+        <v>75626</v>
       </c>
       <c r="C24" t="n">
-        <v>15379.56</v>
+        <v>75436.49000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>17174.76</v>
+        <v>75514.89</v>
       </c>
       <c r="E24" t="n">
-        <v>17193.72</v>
+        <v>75657.77</v>
       </c>
       <c r="F24" t="n">
-        <v>17161.06</v>
+        <v>75772.28999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>17121.11</v>
+        <v>75845.97</v>
       </c>
       <c r="H24" t="n">
-        <v>17174.22</v>
+        <v>75607.62</v>
       </c>
       <c r="I24" t="n">
-        <v>17175.1</v>
+        <v>75696.74000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>17107.71</v>
+        <v>75636.67999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>17192.92</v>
+        <v>75439.36</v>
       </c>
       <c r="L24" t="n">
-        <v>17185.8</v>
+        <v>75454.78999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>17103.01</v>
+        <v>75879.00999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>75298.13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>75427.74000000001</v>
+      </c>
+      <c r="P24" t="n">
+        <v>75708.71000000001</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>75956.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>91608.63</v>
+      </c>
+      <c r="S24" t="n">
+        <v>91259.34</v>
+      </c>
+      <c r="T24" t="n">
+        <v>91342.98</v>
+      </c>
+      <c r="U24" t="n">
+        <v>91309.58</v>
+      </c>
+      <c r="V24" t="n">
+        <v>91874.13</v>
+      </c>
+      <c r="W24" t="n">
+        <v>106813.76</v>
+      </c>
+      <c r="X24" t="n">
+        <v>106962.85</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>106614.47</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>107307.44</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>106783.91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124539.94</v>
+        <v>301565.28</v>
       </c>
       <c r="C25" t="n">
-        <v>138404.74</v>
+        <v>302105.45</v>
       </c>
       <c r="D25" t="n">
-        <v>138298.64</v>
+        <v>302509.95</v>
       </c>
       <c r="E25" t="n">
-        <v>138385.52</v>
+        <v>301780.01</v>
       </c>
       <c r="F25" t="n">
-        <v>126094.86</v>
+        <v>302060.46</v>
       </c>
       <c r="G25" t="n">
-        <v>126250.33</v>
+        <v>302791.27</v>
       </c>
       <c r="H25" t="n">
-        <v>125988.85</v>
+        <v>302619.33</v>
       </c>
       <c r="I25" t="n">
-        <v>125553.12</v>
+        <v>302571.51</v>
       </c>
       <c r="J25" t="n">
-        <v>125932.08</v>
+        <v>303170.29</v>
       </c>
       <c r="K25" t="n">
-        <v>101229.79</v>
+        <v>302108.54</v>
       </c>
       <c r="L25" t="n">
-        <v>86799.24000000001</v>
+        <v>301820.82</v>
       </c>
       <c r="M25" t="n">
-        <v>87303.74000000001</v>
+        <v>303322.65</v>
+      </c>
+      <c r="N25" t="n">
+        <v>303437.79</v>
+      </c>
+      <c r="O25" t="n">
+        <v>302722.59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>303365.08</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>301282.71</v>
+      </c>
+      <c r="R25" t="n">
+        <v>303798.81</v>
+      </c>
+      <c r="S25" t="n">
+        <v>300739.84</v>
+      </c>
+      <c r="T25" t="n">
+        <v>302006.6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>302289.57</v>
+      </c>
+      <c r="V25" t="n">
+        <v>303426.81</v>
+      </c>
+      <c r="W25" t="n">
+        <v>302429.98</v>
+      </c>
+      <c r="X25" t="n">
+        <v>302650.83</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>301948.46</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>497353.17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>498260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>740.3099999999999</v>
+        <v>349336.36</v>
       </c>
       <c r="C26" t="n">
-        <v>731.4</v>
+        <v>351932.79</v>
       </c>
       <c r="D26" t="n">
-        <v>1309.52</v>
+        <v>349378.29</v>
       </c>
       <c r="E26" t="n">
-        <v>677.5700000000001</v>
+        <v>350642.2</v>
       </c>
       <c r="F26" t="n">
-        <v>681.05</v>
+        <v>352024.71</v>
       </c>
       <c r="G26" t="n">
-        <v>679.13</v>
+        <v>352191.17</v>
       </c>
       <c r="H26" t="n">
-        <v>679.4400000000001</v>
+        <v>350482.82</v>
       </c>
       <c r="I26" t="n">
-        <v>690.84</v>
+        <v>350090.26</v>
       </c>
       <c r="J26" t="n">
-        <v>705.49</v>
+        <v>349936.01</v>
       </c>
       <c r="K26" t="n">
-        <v>715.29</v>
+        <v>351051.9</v>
       </c>
       <c r="L26" t="n">
-        <v>709.62</v>
+        <v>350620.7</v>
       </c>
       <c r="M26" t="n">
-        <v>740.4400000000001</v>
+        <v>351842.64</v>
+      </c>
+      <c r="N26" t="n">
+        <v>351848.39</v>
+      </c>
+      <c r="O26" t="n">
+        <v>349155.15</v>
+      </c>
+      <c r="P26" t="n">
+        <v>347583.96</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>352176.37</v>
+      </c>
+      <c r="R26" t="n">
+        <v>351791.37</v>
+      </c>
+      <c r="S26" t="n">
+        <v>349871.8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>351484.51</v>
+      </c>
+      <c r="U26" t="n">
+        <v>347508.64</v>
+      </c>
+      <c r="V26" t="n">
+        <v>347148.7</v>
+      </c>
+      <c r="W26" t="n">
+        <v>347878.47</v>
+      </c>
+      <c r="X26" t="n">
+        <v>352120.54</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>348414.71</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>348428.21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>349617.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103135.9</v>
+        <v>16006.01</v>
       </c>
       <c r="C27" t="n">
-        <v>103046.6</v>
+        <v>16375.84</v>
       </c>
       <c r="D27" t="n">
-        <v>75514.82000000001</v>
+        <v>15463.56</v>
       </c>
       <c r="E27" t="n">
-        <v>75722.02</v>
+        <v>15673.45</v>
       </c>
       <c r="F27" t="n">
-        <v>75364.36</v>
+        <v>15498.45</v>
       </c>
       <c r="G27" t="n">
-        <v>75399.16</v>
+        <v>16018.12</v>
       </c>
       <c r="H27" t="n">
-        <v>75486.42</v>
+        <v>15827.51</v>
       </c>
       <c r="I27" t="n">
-        <v>75468.05</v>
+        <v>16138.04</v>
       </c>
       <c r="J27" t="n">
-        <v>75486.82000000001</v>
+        <v>16110.39</v>
       </c>
       <c r="K27" t="n">
-        <v>75419.91</v>
+        <v>15929.91</v>
       </c>
       <c r="L27" t="n">
-        <v>75569.78</v>
+        <v>16594.1</v>
       </c>
       <c r="M27" t="n">
-        <v>75626</v>
+        <v>16301.7</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15877.59</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15020.93</v>
+      </c>
+      <c r="P27" t="n">
+        <v>16210.34</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>15374.76</v>
+      </c>
+      <c r="R27" t="n">
+        <v>16340.27</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15918.34</v>
+      </c>
+      <c r="T27" t="n">
+        <v>15233.13</v>
+      </c>
+      <c r="U27" t="n">
+        <v>16782.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>14870.99</v>
+      </c>
+      <c r="W27" t="n">
+        <v>14730.1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>16993.77</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>16674.69</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15289.14</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15637.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>303090.71</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>327557.99</v>
+      </c>
+      <c r="C28" t="n">
+        <v>328613.46</v>
+      </c>
       <c r="D28" t="n">
-        <v>301901.94</v>
+        <v>327649.68</v>
       </c>
       <c r="E28" t="n">
-        <v>302886.77</v>
+        <v>328569.02</v>
       </c>
       <c r="F28" t="n">
-        <v>302834.84</v>
+        <v>326989.36</v>
       </c>
       <c r="G28" t="n">
-        <v>301609.73</v>
+        <v>326954.53</v>
       </c>
       <c r="H28" t="n">
-        <v>302232.6</v>
+        <v>327233.2</v>
       </c>
       <c r="I28" t="n">
-        <v>302564.4</v>
+        <v>328685.73</v>
       </c>
       <c r="J28" t="n">
-        <v>302187.23</v>
+        <v>327073.33</v>
       </c>
       <c r="K28" t="n">
-        <v>301840.24</v>
+        <v>326961.97</v>
       </c>
       <c r="L28" t="n">
-        <v>302194.07</v>
+        <v>327626.51</v>
       </c>
       <c r="M28" t="n">
-        <v>301565.28</v>
+        <v>328868.44</v>
+      </c>
+      <c r="N28" t="n">
+        <v>327996.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>291937.96</v>
+      </c>
+      <c r="P28" t="n">
+        <v>267996.88</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>267389.94</v>
+      </c>
+      <c r="R28" t="n">
+        <v>267580.44</v>
+      </c>
+      <c r="S28" t="n">
+        <v>269271.55</v>
+      </c>
+      <c r="T28" t="n">
+        <v>268561.53</v>
+      </c>
+      <c r="U28" t="n">
+        <v>269118.58</v>
+      </c>
+      <c r="V28" t="n">
+        <v>269058.45</v>
+      </c>
+      <c r="W28" t="n">
+        <v>269331.16</v>
+      </c>
+      <c r="X28" t="n">
+        <v>268096.88</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>267895.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>283359.71</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>284885.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>350780.68</v>
+        <v>240964.63</v>
       </c>
       <c r="C29" t="n">
-        <v>349269</v>
+        <v>228605.54</v>
       </c>
       <c r="D29" t="n">
-        <v>350408.99</v>
+        <v>228619.05</v>
       </c>
       <c r="E29" t="n">
-        <v>351660.83</v>
+        <v>230761.92</v>
       </c>
       <c r="F29" t="n">
-        <v>351928.49</v>
+        <v>227857.74</v>
       </c>
       <c r="G29" t="n">
-        <v>349834.03</v>
+        <v>248209.6</v>
       </c>
       <c r="H29" t="n">
-        <v>350385.77</v>
+        <v>249323.21</v>
       </c>
       <c r="I29" t="n">
-        <v>350960.59</v>
+        <v>248385.38</v>
       </c>
       <c r="J29" t="n">
-        <v>351659.04</v>
+        <v>249105.06</v>
       </c>
       <c r="K29" t="n">
-        <v>351290.88</v>
+        <v>248759.37</v>
       </c>
       <c r="L29" t="n">
-        <v>352092.96</v>
+        <v>246253.8</v>
       </c>
       <c r="M29" t="n">
-        <v>349336.36</v>
+        <v>233709.45</v>
+      </c>
+      <c r="N29" t="n">
+        <v>231028.25</v>
+      </c>
+      <c r="O29" t="n">
+        <v>232958.37</v>
+      </c>
+      <c r="P29" t="n">
+        <v>249353.47</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>242136.51</v>
+      </c>
+      <c r="R29" t="n">
+        <v>242414.31</v>
+      </c>
+      <c r="S29" t="n">
+        <v>242907.45</v>
+      </c>
+      <c r="T29" t="n">
+        <v>264094.05</v>
+      </c>
+      <c r="U29" t="n">
+        <v>264970.77</v>
+      </c>
+      <c r="V29" t="n">
+        <v>261069.17</v>
+      </c>
+      <c r="W29" t="n">
+        <v>262048.2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>293885.33</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>294868.4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>292891.12</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>293280.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16033.92</v>
+        <v>100278.56</v>
       </c>
       <c r="C30" t="n">
-        <v>15636.3</v>
+        <v>100136.1</v>
       </c>
       <c r="D30" t="n">
-        <v>15906.39</v>
+        <v>99595.72</v>
       </c>
       <c r="E30" t="n">
-        <v>16383.34</v>
+        <v>99905.86</v>
       </c>
       <c r="F30" t="n">
-        <v>16017.96</v>
+        <v>99624.89999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>15921.81</v>
+        <v>99850.07000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>15745.93</v>
+        <v>100400.58</v>
       </c>
       <c r="I30" t="n">
-        <v>15918.18</v>
+        <v>99646.28999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>15762.59</v>
+        <v>100028.83</v>
       </c>
       <c r="K30" t="n">
-        <v>15925.79</v>
+        <v>100006</v>
       </c>
       <c r="L30" t="n">
-        <v>15530.08</v>
+        <v>100334</v>
       </c>
       <c r="M30" t="n">
-        <v>16006.01</v>
+        <v>99520.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>99957.75999999999</v>
+      </c>
+      <c r="O30" t="n">
+        <v>100178.96</v>
+      </c>
+      <c r="P30" t="n">
+        <v>99913.44</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>100488.04</v>
+      </c>
+      <c r="R30" t="n">
+        <v>99525.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>100186.48</v>
+      </c>
+      <c r="T30" t="n">
+        <v>99454.3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>99687.78</v>
+      </c>
+      <c r="V30" t="n">
+        <v>99485.32000000001</v>
+      </c>
+      <c r="W30" t="n">
+        <v>99517.17</v>
+      </c>
+      <c r="X30" t="n">
+        <v>100177.81</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>99646.06</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>99943.94</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>99958.99000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>327476.6</v>
+        <v>295220.8</v>
       </c>
       <c r="C31" t="n">
-        <v>328656.13</v>
+        <v>294931.11</v>
       </c>
       <c r="D31" t="n">
-        <v>328577.84</v>
+        <v>294432.05</v>
       </c>
       <c r="E31" t="n">
-        <v>328611.41</v>
+        <v>290121.62</v>
       </c>
       <c r="F31" t="n">
-        <v>328817.34</v>
+        <v>300393.25</v>
       </c>
       <c r="G31" t="n">
-        <v>328878.49</v>
+        <v>315527.72</v>
       </c>
       <c r="H31" t="n">
-        <v>328223.09</v>
+        <v>315231.09</v>
       </c>
       <c r="I31" t="n">
-        <v>327759.4</v>
+        <v>311655.95</v>
       </c>
       <c r="J31" t="n">
-        <v>328498.36</v>
+        <v>319320.03</v>
       </c>
       <c r="K31" t="n">
-        <v>327900.82</v>
+        <v>319705.57</v>
       </c>
       <c r="L31" t="n">
-        <v>327812.72</v>
+        <v>320481.47</v>
       </c>
       <c r="M31" t="n">
-        <v>327557.99</v>
+        <v>322991.38</v>
+      </c>
+      <c r="N31" t="n">
+        <v>323274.02</v>
+      </c>
+      <c r="O31" t="n">
+        <v>319565.81</v>
+      </c>
+      <c r="P31" t="n">
+        <v>319310.46</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>317762.45</v>
+      </c>
+      <c r="R31" t="n">
+        <v>318865.52</v>
+      </c>
+      <c r="S31" t="n">
+        <v>320185.66</v>
+      </c>
+      <c r="T31" t="n">
+        <v>317867.59</v>
+      </c>
+      <c r="U31" t="n">
+        <v>305254.35</v>
+      </c>
+      <c r="V31" t="n">
+        <v>308340.59</v>
+      </c>
+      <c r="W31" t="n">
+        <v>313247.27</v>
+      </c>
+      <c r="X31" t="n">
+        <v>317060.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>294658.49</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>300582.34</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>297758</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245846.51</v>
+        <v>8561403.289999999</v>
       </c>
       <c r="C32" t="n">
-        <v>245588.31</v>
+        <v>8553002.1</v>
       </c>
       <c r="D32" t="n">
-        <v>231576.05</v>
+        <v>8538529.42</v>
       </c>
       <c r="E32" t="n">
-        <v>227033.97</v>
+        <v>8413526.859999999</v>
       </c>
       <c r="F32" t="n">
-        <v>245630.66</v>
+        <v>8711404.109999999</v>
       </c>
       <c r="G32" t="n">
-        <v>248479.12</v>
+        <v>9150303.9</v>
       </c>
       <c r="H32" t="n">
-        <v>248048.14</v>
+        <v>9141701.73</v>
       </c>
       <c r="I32" t="n">
-        <v>249204.87</v>
+        <v>9038022.439999999</v>
       </c>
       <c r="J32" t="n">
-        <v>248588.65</v>
+        <v>9260280.73</v>
       </c>
       <c r="K32" t="n">
-        <v>247945.83</v>
+        <v>9271461.51</v>
       </c>
       <c r="L32" t="n">
-        <v>248746.49</v>
+        <v>9293962.560000001</v>
       </c>
       <c r="M32" t="n">
-        <v>240964.63</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Supefondo RV</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>3197643.34</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3616847.15</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3612324.39</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Toronto Trust Multimercado</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>100109.46</v>
-      </c>
-      <c r="C34" t="n">
-        <v>100136.78</v>
-      </c>
-      <c r="D34" t="n">
-        <v>100007.61</v>
-      </c>
-      <c r="E34" t="n">
-        <v>99926.55</v>
-      </c>
-      <c r="F34" t="n">
-        <v>99847.33</v>
-      </c>
-      <c r="G34" t="n">
-        <v>100328.33</v>
-      </c>
-      <c r="H34" t="n">
-        <v>99723.99000000001</v>
-      </c>
-      <c r="I34" t="n">
-        <v>100033.84</v>
-      </c>
-      <c r="J34" t="n">
-        <v>99913.64</v>
-      </c>
-      <c r="K34" t="n">
-        <v>99732.23</v>
-      </c>
-      <c r="L34" t="n">
-        <v>100361.01</v>
-      </c>
-      <c r="M34" t="n">
-        <v>100278.56</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>476929.72</v>
-      </c>
-      <c r="C35" t="n">
-        <v>403211.28</v>
-      </c>
-      <c r="D35" t="n">
-        <v>472137.59</v>
-      </c>
-      <c r="E35" t="n">
-        <v>321736.41</v>
-      </c>
-      <c r="F35" t="n">
-        <v>320870.86</v>
-      </c>
-      <c r="G35" t="n">
-        <v>315547.8</v>
-      </c>
-      <c r="H35" t="n">
-        <v>316521.33</v>
-      </c>
-      <c r="I35" t="n">
-        <v>313406.04</v>
-      </c>
-      <c r="J35" t="n">
-        <v>308427.85</v>
-      </c>
-      <c r="K35" t="n">
-        <v>304272.77</v>
-      </c>
-      <c r="L35" t="n">
-        <v>295212.76</v>
-      </c>
-      <c r="M35" t="n">
-        <v>295220.8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>15738680.62</v>
-      </c>
-      <c r="C36" t="n">
-        <v>11289915.78</v>
-      </c>
-      <c r="D36" t="n">
-        <v>15580540.51</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9330355.869999999</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9305254.859999999</v>
-      </c>
-      <c r="G36" t="n">
-        <v>9150886.130000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9179118.539999999</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9088775.279999999</v>
-      </c>
-      <c r="J36" t="n">
-        <v>8944407.640000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>8823910.23</v>
-      </c>
-      <c r="L36" t="n">
-        <v>8561169.9</v>
-      </c>
-      <c r="M36" t="n">
-        <v>8561403.289999999</v>
+        <v>9366750.109999999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9374946.52</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9267408.52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9260003.470000001</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9215111.16</v>
+      </c>
+      <c r="R32" t="n">
+        <v>9247100.01</v>
+      </c>
+      <c r="S32" t="n">
+        <v>9285384.02</v>
+      </c>
+      <c r="T32" t="n">
+        <v>9218160.210000001</v>
+      </c>
+      <c r="U32" t="n">
+        <v>8852376.060000001</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8941877.140000001</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9084170.859999999</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9194761.82</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8545096.27</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>8716887.720000001</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8634982.140000001</v>
       </c>
     </row>
   </sheetData>
